--- a/Documents/Backlogs/Product Backlog.xlsx
+++ b/Documents/Backlogs/Product Backlog.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Product Backlog Revision History</t>
   </si>
@@ -120,7 +120,10 @@
     <t>As a user, I want to play music</t>
   </si>
   <si>
-    <t>As a user, I want to view my music in a library</t>
+    <t>As a user, I want to view my music in a organized library</t>
+  </si>
+  <si>
+    <t>As a user, I want to import music</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1491,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Gino" refreshedDate="42388.812387152779" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Gino" refreshedDate="42389.489009259261" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:I34" sheet="Product Backlog"/>
   </cacheSource>
@@ -2319,7 +2322,7 @@
   <dimension ref="B1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>3</v>
       </c>
@@ -2477,17 +2480,27 @@
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
       <c r="D8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="18">
+        <v>4</v>
+      </c>
       <c r="F8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
+      <c r="G8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="20">
+        <v>42389</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="18">

--- a/Documents/Backlogs/Product Backlog.xlsx
+++ b/Documents/Backlogs/Product Backlog.xlsx
@@ -111,19 +111,19 @@
     <t>Gino</t>
   </si>
   <si>
-    <t>As a user, I want a GUI</t>
-  </si>
-  <si>
     <t>As a user,</t>
   </si>
   <si>
-    <t>As a user, I want to play music</t>
-  </si>
-  <si>
     <t>As a user, I want to view my music in a organized library</t>
   </si>
   <si>
     <t>As a user, I want to import music</t>
+  </si>
+  <si>
+    <t>As a user, I want a simple GUI</t>
+  </si>
+  <si>
+    <t>As a user, I want to control how I play music (mp3s)</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1491,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Gino" refreshedDate="42389.489009259261" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Gino" refreshedDate="42389.504671064817" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:I34" sheet="Product Backlog"/>
   </cacheSource>
@@ -1527,7 +1527,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Added On" numFmtId="165">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-01-19T00:00:00" maxDate="2016-01-20T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-01-19T00:00:00" maxDate="2016-01-21T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1563,7 +1563,7 @@
   <r>
     <n v="3"/>
     <n v="2"/>
-    <s v="As a user, I want to view my music in a library"/>
+    <s v="As a user, I want to view my music in a organized library"/>
     <n v="4"/>
     <s v="Not Started"/>
     <x v="0"/>
@@ -1572,13 +1572,13 @@
   </r>
   <r>
     <n v="4"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="2"/>
+    <s v="As a user, I want to import music"/>
+    <n v="4"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="Gino"/>
+    <d v="2016-01-20T00:00:00"/>
   </r>
   <r>
     <n v="5"/>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="18">
         <v>5</v>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="18">
         <v>4</v>
@@ -2441,7 +2441,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="18">
         <v>4</v>
@@ -2473,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="L7" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="18">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18" t="s">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18" t="s">

--- a/Documents/Backlogs/Product Backlog.xlsx
+++ b/Documents/Backlogs/Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 Programs\GitHub\ProjectMan\Documents\Backlogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Repositories\ProjectMan\Documents\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Product Backlog Revision History</t>
   </si>
@@ -45,18 +45,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Team Member</t>
-  </si>
-  <si>
-    <t>Initial version</t>
-  </si>
-  <si>
-    <t>Added a story</t>
-  </si>
-  <si>
-    <t>Different Member</t>
-  </si>
-  <si>
     <t>Product Backlog</t>
   </si>
   <si>
@@ -114,22 +102,61 @@
     <t>As a user,</t>
   </si>
   <si>
-    <t>As a user, I want to view my music in a organized library</t>
-  </si>
-  <si>
     <t>As a user, I want to import music</t>
   </si>
   <si>
     <t>As a user, I want a simple GUI</t>
   </si>
   <si>
-    <t>As a user, I want to control how I play music (mp3s)</t>
+    <t>As a user, I want to play music (mp3s)</t>
+  </si>
+  <si>
+    <t>As a user, I want to view my music</t>
+  </si>
+  <si>
+    <t>As a user, I want to shuffle music</t>
+  </si>
+  <si>
+    <t>As a user, I want to organize music</t>
+  </si>
+  <si>
+    <t>As a user, I want to create playlists</t>
+  </si>
+  <si>
+    <t>As a user, I want to add music to the playing queue</t>
+  </si>
+  <si>
+    <t>As a user, I want to skip songs</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to import multiple file types (mp3, wav, etc)</t>
+  </si>
+  <si>
+    <t>Original Version</t>
+  </si>
+  <si>
+    <t>David Gould</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>As a user, I want to repeat songs</t>
+  </si>
+  <si>
+    <t>As a user, I want to see album artwork</t>
+  </si>
+  <si>
+    <t>As a user, I want to pause music</t>
+  </si>
+  <si>
+    <t>As a user, I want an advanced GUI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -375,7 +402,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -418,6 +445,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -475,6 +503,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -508,8 +537,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -592,6 +623,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -636,7 +668,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-248B-46DE-9724-248500420A03}"/>
             </c:ext>
@@ -653,11 +685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392695064"/>
-        <c:axId val="392695848"/>
+        <c:axId val="-1146701232"/>
+        <c:axId val="-1146700688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="392695064"/>
+        <c:axId val="-1146701232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392695848"/>
+        <c:crossAx val="-1146700688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392695848"/>
+        <c:axId val="-1146700688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -772,7 +804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392695064"/>
+        <c:crossAx val="-1146701232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -834,7 +866,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1491,7 +1523,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Gino" refreshedDate="42389.504671064817" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="David Gould" refreshedDate="42395.734253587965" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:I34" sheet="Product Backlog"/>
   </cacheSource>
@@ -1543,7 +1575,7 @@
   <r>
     <n v="1"/>
     <n v="1"/>
-    <s v="As a user, I want a GUI"/>
+    <s v="As a user, I want a simple GUI"/>
     <n v="5"/>
     <s v="In Progress"/>
     <x v="0"/>
@@ -1553,7 +1585,7 @@
   <r>
     <n v="2"/>
     <n v="1"/>
-    <s v="As a user, I want to play music"/>
+    <s v="As a user, I want to control how I play music (mp3s)"/>
     <n v="4"/>
     <s v="Not Started"/>
     <x v="0"/>
@@ -1844,7 +1876,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
   <location ref="K4:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2212,7 +2244,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,7 +2252,7 @@
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2249,28 +2281,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E5" s="17">
-        <v>42078</v>
+        <v>42395</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="17">
-        <v>42083</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
@@ -2321,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,39 +2371,39 @@
     <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2390,25 +2414,23 @@
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="20">
         <v>42388</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L5" s="7"/>
     </row>
@@ -2420,31 +2442,29 @@
         <v>1</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="I6" s="20">
         <v>42388</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>3</v>
       </c>
@@ -2452,25 +2472,23 @@
         <v>2</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="I7" s="20">
         <v>42388</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7">
         <v>17</v>
@@ -2484,19 +2502,17 @@
         <v>2</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="I8" s="20">
         <v>42389</v>
@@ -2506,161 +2522,241 @@
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="18">
+        <v>3</v>
+      </c>
       <c r="D9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="E9" s="18">
+        <v>8</v>
+      </c>
       <c r="F9" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="20">
+        <v>42395</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
       <c r="D10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
       <c r="F10" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="20">
+        <v>42395</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="18">
+        <v>3</v>
+      </c>
       <c r="D11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="18">
+        <v>8</v>
+      </c>
       <c r="F11" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="20">
+        <v>42395</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="18">
+        <v>3</v>
+      </c>
       <c r="D12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="18">
+        <v>5</v>
+      </c>
       <c r="F12" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="20">
+        <v>42395</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
       <c r="D13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="18">
+        <v>5</v>
+      </c>
       <c r="F13" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="20">
+        <v>42395</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
       <c r="D14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
       <c r="F14" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="20">
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="18">
+        <v>4</v>
+      </c>
       <c r="D15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="E15" s="18">
+        <v>3</v>
+      </c>
       <c r="F15" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20"/>
+      <c r="H15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="20">
+        <v>42395</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="18">
+        <v>4</v>
+      </c>
       <c r="D16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="E16" s="18">
+        <v>5</v>
+      </c>
       <c r="F16" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="20">
+        <v>42395</v>
+      </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>13</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="18">
+        <v>5</v>
+      </c>
       <c r="D17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="E17" s="18">
+        <v>8</v>
+      </c>
       <c r="F17" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="20">
+        <v>42395</v>
+      </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>14</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="18">
+        <v>5</v>
+      </c>
       <c r="D18" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="E18" s="18">
+        <v>8</v>
+      </c>
       <c r="F18" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="20"/>
+      <c r="H18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="20">
+        <v>42395</v>
+      </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
@@ -2668,11 +2764,11 @@
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -2708,7 +2804,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="21"/>
       <c r="M22" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>

--- a/Documents/Backlogs/Product Backlog.xlsx
+++ b/Documents/Backlogs/Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Repositories\ProjectMan\Documents\Backlogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 Programs\GitHub\ProjectMan\Documents\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Product Backlog Revision History</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Sum of Story Points</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>*NOTE: To refresh chart data, right click on the chart and select "Refresh Data"</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Gino</t>
   </si>
   <si>
-    <t>As a user,</t>
-  </si>
-  <si>
     <t>As a user, I want to import music</t>
   </si>
   <si>
@@ -151,12 +145,21 @@
   </si>
   <si>
     <t>As a user, I want an advanced GUI</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to control the volume</t>
+  </si>
+  <si>
+    <t>As a user, I want to see see song information</t>
+  </si>
+  <si>
+    <t>As a user, I want to scrub through songs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -243,21 +246,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
       <fill>
@@ -402,7 +391,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -445,7 +434,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -503,7 +491,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -537,10 +524,8 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -623,7 +608,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -643,32 +627,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Product Backlog'!$K$5:$K$7</c:f>
+              <c:f>'Product Backlog'!$K$5:$K$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Product Backlog'!$L$5:$L$7</c:f>
+              <c:f>'Product Backlog'!$L$5:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-248B-46DE-9724-248500420A03}"/>
             </c:ext>
@@ -866,7 +847,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1523,7 +1504,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="David Gould" refreshedDate="42395.734253587965" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Gino" refreshedDate="42396.456191898149" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:I34" sheet="Product Backlog"/>
   </cacheSource>
@@ -1532,20 +1513,19 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
     </cacheField>
     <cacheField name="Rank" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="User Story" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Story Points" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Iteration" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
-        <s v="Sprint 1"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="8">
         <m/>
         <s v="Sprint 3" u="1"/>
         <s v="Sprint 5" u="1"/>
@@ -1553,13 +1533,14 @@
         <s v="Sprint 2" u="1"/>
         <s v="Sprint 4" u="1"/>
         <s v="Sprint 6" u="1"/>
+        <s v="Sprint 1" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Added By" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Added On" numFmtId="165">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-01-19T00:00:00" maxDate="2016-01-21T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-01-19T00:00:00" maxDate="2016-01-27T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1576,7 +1557,7 @@
     <n v="1"/>
     <n v="1"/>
     <s v="As a user, I want a simple GUI"/>
-    <n v="5"/>
+    <n v="3"/>
     <s v="In Progress"/>
     <x v="0"/>
     <s v="Gino"/>
@@ -1585,8 +1566,8 @@
   <r>
     <n v="2"/>
     <n v="1"/>
-    <s v="As a user, I want to control how I play music (mp3s)"/>
-    <n v="4"/>
+    <s v="As a user, I want to play music (mp3s)"/>
+    <n v="5"/>
     <s v="Not Started"/>
     <x v="0"/>
     <s v="Gino"/>
@@ -1595,8 +1576,8 @@
   <r>
     <n v="3"/>
     <n v="2"/>
-    <s v="As a user, I want to view my music in a organized library"/>
-    <n v="4"/>
+    <s v="As a user, I want to view my music"/>
+    <n v="3"/>
     <s v="Not Started"/>
     <x v="0"/>
     <s v="Gino"/>
@@ -1606,7 +1587,7 @@
     <n v="4"/>
     <n v="2"/>
     <s v="As a user, I want to import music"/>
-    <n v="4"/>
+    <n v="8"/>
     <s v="Not Started"/>
     <x v="0"/>
     <s v="Gino"/>
@@ -1614,103 +1595,103 @@
   </r>
   <r>
     <n v="5"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="3"/>
+    <s v="As a user, I want to shuffle music"/>
+    <n v="8"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="David"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="6"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="1"/>
+    <s v="As a user, I want to pause music"/>
+    <n v="3"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="David"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="7"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="3"/>
+    <s v="As a user, I want to organize music"/>
+    <n v="8"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="David"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="8"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="3"/>
+    <s v="As a user, I want to create playlists"/>
+    <n v="5"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="David"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="9"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="4"/>
+    <s v="As a user, I want to add music to the playing queue"/>
+    <n v="5"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="David"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="10"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="2"/>
+    <s v="As a user, I want to skip songs"/>
+    <n v="1"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="David"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="11"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="4"/>
+    <s v="As a user, I want to be able to import multiple file types (mp3, wav, etc)"/>
+    <n v="3"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="David"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="12"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="4"/>
+    <s v="As a user, I want to repeat songs"/>
+    <n v="5"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="Gino"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="13"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="5"/>
+    <s v="As a user, I want to see album artwork"/>
+    <n v="8"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="Gino"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="14"/>
-    <m/>
-    <s v="As a user,"/>
-    <m/>
+    <n v="5"/>
+    <s v="As a user, I want an advanced GUI"/>
+    <n v="8"/>
     <s v="Not Started"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="Gino"/>
+    <d v="2016-01-26T00:00:00"/>
   </r>
   <r>
     <n v="15"/>
@@ -1718,7 +1699,7 @@
     <s v="As a user,"/>
     <m/>
     <s v="Not Started"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1728,7 +1709,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1738,7 +1719,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1748,7 +1729,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1758,7 +1739,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1768,7 +1749,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1778,7 +1759,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1788,7 +1769,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1798,7 +1779,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1808,7 +1789,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1818,7 +1799,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1828,7 +1809,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1838,7 +1819,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1848,7 +1829,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1858,7 +1839,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1868,7 +1849,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1876,8 +1857,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
-  <location ref="K4:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+  <location ref="K4:L6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1886,14 +1867,14 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
-        <item x="1"/>
         <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="1"/>
         <item m="1" x="5"/>
         <item m="1" x="2"/>
         <item m="1" x="6"/>
         <item m="1" x="3"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1903,12 +1884,9 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -1921,10 +1899,10 @@
     <dataField name="Sum of Story Points" fld="3" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="11">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -1952,27 +1930,27 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B4:E7" totalsRowShown="0">
   <autoFilter ref="B4:E7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Version" dataDxfId="16"/>
-    <tableColumn id="2" name="Notes" dataDxfId="15"/>
+    <tableColumn id="1" name="Version" dataDxfId="14"/>
+    <tableColumn id="2" name="Notes" dataDxfId="13"/>
     <tableColumn id="3" name="Modified By"/>
-    <tableColumn id="4" name="Date" dataDxfId="14"/>
+    <tableColumn id="4" name="Date" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:I34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:I34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B4:I34"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" name="Rank" dataDxfId="8"/>
-    <tableColumn id="3" name="User Story" dataDxfId="7"/>
-    <tableColumn id="4" name="Story Points" dataDxfId="6"/>
-    <tableColumn id="5" name="Status" dataDxfId="5"/>
-    <tableColumn id="6" name="Iteration" dataDxfId="4"/>
-    <tableColumn id="7" name="Added By" dataDxfId="3"/>
-    <tableColumn id="8" name="Added On" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" name="Rank" dataDxfId="6"/>
+    <tableColumn id="3" name="User Story" dataDxfId="5"/>
+    <tableColumn id="4" name="Story Points" dataDxfId="4"/>
+    <tableColumn id="5" name="Status" dataDxfId="3"/>
+    <tableColumn id="6" name="Iteration" dataDxfId="2"/>
+    <tableColumn id="7" name="Added By" dataDxfId="1"/>
+    <tableColumn id="8" name="Added On" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2281,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="17">
         <v>42395</v>
@@ -2345,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,17 +2392,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="18">
         <v>3</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="20">
         <v>42388</v>
@@ -2432,7 +2410,9 @@
       <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
@@ -2442,26 +2422,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="18">
         <v>5</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="20">
         <v>42388</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2472,26 +2452,20 @@
         <v>2</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="18">
         <v>3</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="20">
         <v>42388</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="7">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2502,17 +2476,17 @@
         <v>2</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="18">
         <v>8</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="20">
         <v>42389</v>
@@ -2526,17 +2500,17 @@
         <v>3</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="18">
         <v>8</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="20">
         <v>42395</v>
@@ -2550,17 +2524,17 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="18">
         <v>3</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="20">
         <v>42395</v>
@@ -2574,17 +2548,17 @@
         <v>3</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="18">
         <v>8</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" s="20">
         <v>42395</v>
@@ -2598,17 +2572,17 @@
         <v>3</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="18">
         <v>5</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="20">
         <v>42395</v>
@@ -2622,17 +2596,17 @@
         <v>4</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="18">
         <v>5</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="20">
         <v>42395</v>
@@ -2646,17 +2620,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="18">
         <v>1</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I14" s="20">
         <v>42395</v>
@@ -2670,17 +2644,17 @@
         <v>4</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="18">
         <v>3</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I15" s="20">
         <v>42395</v>
@@ -2694,17 +2668,17 @@
         <v>4</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="18">
         <v>5</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="20">
         <v>42395</v>
@@ -2718,17 +2692,17 @@
         <v>5</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="18">
         <v>8</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="20">
         <v>42395</v>
@@ -2742,17 +2716,17 @@
         <v>5</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="18">
         <v>8</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="20">
         <v>42395</v>
@@ -2762,37 +2736,73 @@
       <c r="B19" s="18">
         <v>15</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
       <c r="D19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="E19" s="18">
+        <v>3</v>
+      </c>
       <c r="F19" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="20">
+        <v>42396</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="B20" s="18">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18">
+        <v>4</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="18">
+        <v>3</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="20">
+        <v>42396</v>
+      </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="B21" s="18">
+        <v>17</v>
+      </c>
+      <c r="C21" s="18">
+        <v>3</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="18">
+        <v>5</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="20">
+        <v>42396</v>
+      </c>
     </row>
     <row r="22" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
@@ -2804,7 +2814,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="21"/>
       <c r="M22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
